--- a/02_modeling-design/02_database-design/keepFitApp-createTable-20190321.xlsx
+++ b/02_modeling-design/02_database-design/keepFitApp-createTable-20190321.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547EE6D-2F35-4C80-B88F-0DCBD3A6E5C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6613FD5-B258-473D-97EE-65261253D8A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INIT TABLE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -64,63 +64,408 @@
     <t>自增ID</t>
   </si>
   <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户电子邮件</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>用户身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户身高</t>
+  </si>
+  <si>
+    <t>用户重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户重量</t>
+  </si>
+  <si>
+    <t>用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSTCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户邮编</t>
+  </si>
+  <si>
+    <t>活动水平</t>
+  </si>
+  <si>
+    <t>LEVEL_OF_ACTIVOTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每英里步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEPS_PER_MILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每英里步数</t>
+  </si>
+  <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_KFA_BU_CONSUMPTION_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>食品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称:  食物表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_KFA_DB_FOOD_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  食物表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡路里量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALORIE_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVING_UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称:  报告表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_KFA_BU_REPORT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  报告表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>表名称: 凭证表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_KFA_BU_CREDENTIAL_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  凭证表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册日期</t>
+  </si>
+  <si>
+    <t>SIGN_UP_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
   <si>
     <t>表名称:  用户表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表编码:  T_KFA_USER_INFO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_KFA_BU_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注说明:  用户表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>用户姓</t>
   </si>
   <si>
     <t>SURNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>否</t>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEMDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别: 0 女,1 男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称: 消费表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  消费表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMPTION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费ID</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCAHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVING_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告ID</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_STEPS_TAKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡路里摄入量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_CALORIES_CONSUMED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡路里摄入量</t>
+  </si>
+  <si>
+    <t>卡路里消耗量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_CALORIES_BURNED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_HASH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,49 +489,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -208,7 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,34 +548,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,205 +842,1452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B3:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2"/>
+    <row r="3" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
+    <row r="6" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
+      <c r="G35" s="1">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="1">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+    </row>
+    <row r="45" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C48" s="5">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="1">
+        <v>20</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="1">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C51" s="5">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="1">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C54" s="2"/>
+      <c r="D54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="1">
+        <v>20</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="1">
+        <v>20</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="1">
+        <v>20</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:J3"/>
+  <mergeCells count="6">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{BF8F8B1E-6B44-4FE0-B7E9-2EAC0FA0B181}">
-      <formula1>"普通表,临时表"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{F4040652-5101-40B9-B39E-834356A32725}">
-      <formula1>"新需求,需求变更,需求遗漏,设计遗漏,设计错误,设计优化,开发变更,开发遗漏,接口开发"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{BBD27F72-B4FC-4FA6-8062-A95E4D71C1C6}">
-      <formula1>"创建表,修改表,删除表"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K7" xr:uid="{D9053711-B0FD-4EAD-A71C-91221A95C5A7}">
-      <formula1>"新增,修改"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8" xr:uid="{B64B517A-654A-4B38-8653-6AF7EFF14A2F}">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
